--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschm\Documents\repos\ETravel\ETravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CF1E2B-3468-4DA2-8105-4E2F013F13D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0711663-3B03-41E0-9017-45D931B9EFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA7066DC-7E0E-40EB-B7BA-A01EB3BA1BC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BA7066DC-7E0E-40EB-B7BA-A01EB3BA1BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="warning" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$E$700</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="742">
   <si>
     <t>0 20190326-0700 4170861 NYB 20190404</t>
   </si>
@@ -2257,13 +2258,19 @@
   </si>
   <si>
     <t>20190326-0736</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2277,16 +2284,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2309,17 +2328,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2346,27 +2410,38 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2CF5212F-5DFB-4B20-BC4E-D4E21DF873D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="7" unboundColumnsRight="1">
+    <queryTableFields count="6">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
+      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA7F83B-63CB-4194-A160-75A7BAB9B094}" name="utasadat" displayName="utasadat" ref="A1:E700" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E700" xr:uid="{730C6C37-F006-4680-96AE-9B14599DA4D4}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BA7F83B-63CB-4194-A160-75A7BAB9B094}" name="utasadat" displayName="utasadat" ref="A1:F700" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F700" xr:uid="{730C6C37-F006-4680-96AE-9B14599DA4D4}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="20190326"/>
+        <filter val="20190327"/>
+        <filter val="20190328"/>
+        <filter val="20190329"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BCD7A74A-0415-4E17-AC5D-EAC2B7C275E2}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{9ED00334-4FCE-48AA-886F-3F12FD4180B0}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{B26970BA-4BFE-49FE-96FA-881D771D15D0}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0067C245-78B7-495B-A99C-5608536EAEDC}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{89E5A66F-0CB4-44DB-9BC2-B6C8EFC813B1}" uniqueName="5" name="Column5" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{8CE54FDF-C8B2-4CCE-A74C-586A4544372A}" uniqueName="6" name="Column6" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2669,9 +2744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A705F1A5-A7C2-4AD5-9AC1-C5C59F3D3571}">
-  <dimension ref="A1:E700"/>
+  <dimension ref="A1:F700"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F688"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2680,7 +2757,7 @@
     <col min="3" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>699</v>
       </c>
@@ -2696,8 +2773,11 @@
       <c r="E1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2714,7 +2794,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2731,7 +2811,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2748,7 +2828,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2765,7 +2845,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2782,7 +2862,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2799,7 +2879,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2816,7 +2896,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2833,7 +2913,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2850,7 +2930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2867,7 +2947,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2884,7 +2964,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2901,7 +2981,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2918,7 +2998,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2935,7 +3015,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2952,7 +3032,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2968,8 +3048,11 @@
       <c r="E17">
         <v>20190328</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2986,7 +3069,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3003,7 +3086,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3020,7 +3103,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3037,7 +3120,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3054,7 +3137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3071,7 +3154,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3088,7 +3171,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3105,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3122,7 +3205,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3139,7 +3222,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3156,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3172,8 +3255,11 @@
       <c r="E29">
         <v>20190329</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3190,7 +3276,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3207,7 +3293,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3224,7 +3310,7 @@
         <v>20190403</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3241,7 +3327,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3258,7 +3344,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3275,7 +3361,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3292,7 +3378,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3309,7 +3395,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3343,7 +3429,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3360,7 +3446,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3377,7 +3463,7 @@
         <v>20190401</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3394,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3411,7 +3497,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3428,7 +3514,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3445,7 +3531,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3462,7 +3548,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3479,7 +3565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3496,7 +3582,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3513,7 +3599,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3530,7 +3616,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3547,7 +3633,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3564,7 +3650,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3598,7 +3684,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3615,7 +3701,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3632,7 +3718,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3649,7 +3735,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3666,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3683,7 +3769,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3717,7 +3803,7 @@
         <v>20190329</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3734,7 +3820,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3751,7 +3837,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3768,7 +3854,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3785,7 +3871,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3802,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3819,7 +3905,7 @@
         <v>20190402</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3836,7 +3922,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3853,7 +3939,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3870,7 +3956,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3887,7 +3973,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3904,7 +3990,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3921,7 +4007,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3938,7 +4024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3955,7 +4041,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3972,7 +4058,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3989,7 +4075,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -4006,7 +4092,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -4040,7 +4126,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4057,7 +4143,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4074,7 +4160,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4091,7 +4177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -4108,7 +4194,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -4142,7 +4228,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4159,7 +4245,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4193,7 +4279,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4210,7 +4296,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4227,7 +4313,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4244,7 +4330,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3</v>
       </c>
@@ -4261,7 +4347,7 @@
         <v>20190402</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -4278,7 +4364,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3</v>
       </c>
@@ -4295,7 +4381,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
@@ -4312,7 +4398,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3</v>
       </c>
@@ -4329,7 +4415,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3</v>
       </c>
@@ -4346,7 +4432,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>3</v>
       </c>
@@ -4363,7 +4449,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -4380,7 +4466,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3</v>
       </c>
@@ -4397,7 +4483,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3</v>
       </c>
@@ -4414,7 +4500,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -4431,7 +4517,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3</v>
       </c>
@@ -4448,7 +4534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3</v>
       </c>
@@ -4465,7 +4551,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3</v>
       </c>
@@ -4482,7 +4568,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3</v>
       </c>
@@ -4499,7 +4585,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4516,7 +4602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3</v>
       </c>
@@ -4533,7 +4619,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
@@ -4550,7 +4636,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3</v>
       </c>
@@ -4567,7 +4653,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -4584,7 +4670,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4601,7 +4687,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>4</v>
       </c>
@@ -4618,7 +4704,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4</v>
       </c>
@@ -4635,7 +4721,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4</v>
       </c>
@@ -4652,7 +4738,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4669,7 +4755,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>4</v>
       </c>
@@ -4686,7 +4772,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>4</v>
       </c>
@@ -4703,7 +4789,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>4</v>
       </c>
@@ -4720,7 +4806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>4</v>
       </c>
@@ -4737,7 +4823,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>4</v>
       </c>
@@ -4754,7 +4840,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>4</v>
       </c>
@@ -4788,7 +4874,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -4805,7 +4891,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>4</v>
       </c>
@@ -4822,7 +4908,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -4839,7 +4925,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>4</v>
       </c>
@@ -4856,7 +4942,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>4</v>
       </c>
@@ -4873,7 +4959,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>4</v>
       </c>
@@ -4890,7 +4976,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>4</v>
       </c>
@@ -4907,7 +4993,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>4</v>
       </c>
@@ -4924,7 +5010,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4</v>
       </c>
@@ -4941,7 +5027,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4</v>
       </c>
@@ -4958,7 +5044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>4</v>
       </c>
@@ -4975,7 +5061,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>4</v>
       </c>
@@ -4992,7 +5078,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -5009,7 +5095,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -5026,7 +5112,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -5060,7 +5146,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4</v>
       </c>
@@ -5077,7 +5163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4</v>
       </c>
@@ -5094,7 +5180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5</v>
       </c>
@@ -5111,7 +5197,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5</v>
       </c>
@@ -5128,7 +5214,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5</v>
       </c>
@@ -5145,7 +5231,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5</v>
       </c>
@@ -5162,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5</v>
       </c>
@@ -5179,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5</v>
       </c>
@@ -5196,7 +5282,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>5</v>
       </c>
@@ -5213,7 +5299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -5230,7 +5316,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5</v>
       </c>
@@ -5247,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5</v>
       </c>
@@ -5264,7 +5350,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5</v>
       </c>
@@ -5281,7 +5367,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5</v>
       </c>
@@ -5298,7 +5384,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5</v>
       </c>
@@ -5315,7 +5401,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>5</v>
       </c>
@@ -5349,7 +5435,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>5</v>
       </c>
@@ -5366,7 +5452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>5</v>
       </c>
@@ -5383,7 +5469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>5</v>
       </c>
@@ -5400,7 +5486,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>5</v>
       </c>
@@ -5417,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5</v>
       </c>
@@ -5434,7 +5520,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>5</v>
       </c>
@@ -5451,7 +5537,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5</v>
       </c>
@@ -5468,7 +5554,7 @@
         <v>20190405</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5</v>
       </c>
@@ -5485,7 +5571,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>5</v>
       </c>
@@ -5502,7 +5588,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>5</v>
       </c>
@@ -5519,7 +5605,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>5</v>
       </c>
@@ -5536,7 +5622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>5</v>
       </c>
@@ -5553,7 +5639,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>5</v>
       </c>
@@ -5570,7 +5656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>5</v>
       </c>
@@ -5587,7 +5673,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>6</v>
       </c>
@@ -5604,7 +5690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>6</v>
       </c>
@@ -5638,7 +5724,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -5655,7 +5741,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -5672,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -5689,7 +5775,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6</v>
       </c>
@@ -5706,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -5723,7 +5809,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6</v>
       </c>
@@ -5740,7 +5826,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6</v>
       </c>
@@ -5757,7 +5843,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>7</v>
       </c>
@@ -5774,7 +5860,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>7</v>
       </c>
@@ -5791,7 +5877,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>7</v>
       </c>
@@ -5808,7 +5894,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>7</v>
       </c>
@@ -5825,7 +5911,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>7</v>
       </c>
@@ -5842,7 +5928,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7</v>
       </c>
@@ -5859,7 +5945,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>7</v>
       </c>
@@ -5876,7 +5962,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>7</v>
       </c>
@@ -5893,7 +5979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7</v>
       </c>
@@ -5910,7 +5996,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>7</v>
       </c>
@@ -5927,7 +6013,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>7</v>
       </c>
@@ -5944,7 +6030,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>7</v>
       </c>
@@ -5961,7 +6047,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>7</v>
       </c>
@@ -5978,7 +6064,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>7</v>
       </c>
@@ -5995,7 +6081,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>7</v>
       </c>
@@ -6012,7 +6098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7</v>
       </c>
@@ -6029,7 +6115,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>7</v>
       </c>
@@ -6046,7 +6132,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
@@ -6063,7 +6149,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
@@ -6080,7 +6166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -6097,7 +6183,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>8</v>
       </c>
@@ -6114,7 +6200,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>8</v>
       </c>
@@ -6148,7 +6234,7 @@
         <v>20190329</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>8</v>
       </c>
@@ -6165,7 +6251,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>8</v>
       </c>
@@ -6182,7 +6268,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>8</v>
       </c>
@@ -6199,7 +6285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>8</v>
       </c>
@@ -6216,7 +6302,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>8</v>
       </c>
@@ -6233,7 +6319,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>8</v>
       </c>
@@ -6250,7 +6336,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>8</v>
       </c>
@@ -6267,7 +6353,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>8</v>
       </c>
@@ -6284,7 +6370,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>8</v>
       </c>
@@ -6301,7 +6387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>8</v>
       </c>
@@ -6318,7 +6404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>8</v>
       </c>
@@ -6335,7 +6421,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>8</v>
       </c>
@@ -6352,7 +6438,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>8</v>
       </c>
@@ -6369,7 +6455,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>8</v>
       </c>
@@ -6386,7 +6472,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>8</v>
       </c>
@@ -6403,7 +6489,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>8</v>
       </c>
@@ -6420,7 +6506,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>8</v>
       </c>
@@ -6437,7 +6523,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>8</v>
       </c>
@@ -6454,7 +6540,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>8</v>
       </c>
@@ -6471,7 +6557,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>8</v>
       </c>
@@ -6488,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8</v>
       </c>
@@ -6505,7 +6591,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>8</v>
       </c>
@@ -6522,7 +6608,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>8</v>
       </c>
@@ -6539,7 +6625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>8</v>
       </c>
@@ -6556,7 +6642,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>8</v>
       </c>
@@ -6573,7 +6659,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8</v>
       </c>
@@ -6590,7 +6676,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8</v>
       </c>
@@ -6607,7 +6693,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8</v>
       </c>
@@ -6624,7 +6710,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8</v>
       </c>
@@ -6641,7 +6727,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8</v>
       </c>
@@ -6658,7 +6744,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8</v>
       </c>
@@ -6675,7 +6761,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8</v>
       </c>
@@ -6692,7 +6778,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -6709,7 +6795,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>9</v>
       </c>
@@ -6726,7 +6812,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>9</v>
       </c>
@@ -6743,7 +6829,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>9</v>
       </c>
@@ -6760,7 +6846,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>9</v>
       </c>
@@ -6777,7 +6863,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>9</v>
       </c>
@@ -6794,7 +6880,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>9</v>
       </c>
@@ -6811,7 +6897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>9</v>
       </c>
@@ -6828,7 +6914,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>9</v>
       </c>
@@ -6845,7 +6931,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9</v>
       </c>
@@ -6879,7 +6965,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9</v>
       </c>
@@ -6913,7 +6999,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>9</v>
       </c>
@@ -6930,7 +7016,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>9</v>
       </c>
@@ -6947,7 +7033,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>9</v>
       </c>
@@ -6964,7 +7050,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>9</v>
       </c>
@@ -6981,7 +7067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>9</v>
       </c>
@@ -6998,7 +7084,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>9</v>
       </c>
@@ -7015,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>9</v>
       </c>
@@ -7032,7 +7118,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9</v>
       </c>
@@ -7049,7 +7135,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>10</v>
       </c>
@@ -7066,7 +7152,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>10</v>
       </c>
@@ -7083,7 +7169,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>10</v>
       </c>
@@ -7100,7 +7186,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>10</v>
       </c>
@@ -7117,7 +7203,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>10</v>
       </c>
@@ -7134,7 +7220,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>10</v>
       </c>
@@ -7151,7 +7237,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>10</v>
       </c>
@@ -7168,7 +7254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>10</v>
       </c>
@@ -7185,7 +7271,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>10</v>
       </c>
@@ -7202,7 +7288,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>10</v>
       </c>
@@ -7219,7 +7305,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>10</v>
       </c>
@@ -7236,7 +7322,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>10</v>
       </c>
@@ -7253,7 +7339,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>10</v>
       </c>
@@ -7270,7 +7356,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>10</v>
       </c>
@@ -7287,7 +7373,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>10</v>
       </c>
@@ -7304,7 +7390,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>11</v>
       </c>
@@ -7321,7 +7407,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>11</v>
       </c>
@@ -7338,7 +7424,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>11</v>
       </c>
@@ -7355,7 +7441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>11</v>
       </c>
@@ -7372,7 +7458,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>11</v>
       </c>
@@ -7389,7 +7475,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>11</v>
       </c>
@@ -7406,7 +7492,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>11</v>
       </c>
@@ -7423,7 +7509,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>11</v>
       </c>
@@ -7440,7 +7526,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>11</v>
       </c>
@@ -7457,7 +7543,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>11</v>
       </c>
@@ -7474,7 +7560,7 @@
         <v>20190403</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>11</v>
       </c>
@@ -7491,7 +7577,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>11</v>
       </c>
@@ -7508,7 +7594,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>11</v>
       </c>
@@ -7525,7 +7611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>11</v>
       </c>
@@ -7542,7 +7628,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>11</v>
       </c>
@@ -7559,7 +7645,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>11</v>
       </c>
@@ -7576,7 +7662,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>11</v>
       </c>
@@ -7593,7 +7679,7 @@
         <v>20190403</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>11</v>
       </c>
@@ -7610,7 +7696,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>11</v>
       </c>
@@ -7627,7 +7713,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>11</v>
       </c>
@@ -7644,7 +7730,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>11</v>
       </c>
@@ -7661,7 +7747,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>11</v>
       </c>
@@ -7678,7 +7764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>11</v>
       </c>
@@ -7695,7 +7781,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>11</v>
       </c>
@@ -7712,7 +7798,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>12</v>
       </c>
@@ -7729,7 +7815,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>12</v>
       </c>
@@ -7746,7 +7832,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>12</v>
       </c>
@@ -7763,7 +7849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>12</v>
       </c>
@@ -7780,7 +7866,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>12</v>
       </c>
@@ -7797,7 +7883,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>12</v>
       </c>
@@ -7814,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>12</v>
       </c>
@@ -7848,7 +7934,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>12</v>
       </c>
@@ -7865,7 +7951,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>12</v>
       </c>
@@ -7882,7 +7968,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>12</v>
       </c>
@@ -7899,7 +7985,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>12</v>
       </c>
@@ -7916,7 +8002,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>12</v>
       </c>
@@ -7933,7 +8019,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>12</v>
       </c>
@@ -7950,7 +8036,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>12</v>
       </c>
@@ -7967,7 +8053,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>12</v>
       </c>
@@ -7984,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>12</v>
       </c>
@@ -8001,7 +8087,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>12</v>
       </c>
@@ -8018,7 +8104,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>12</v>
       </c>
@@ -8035,7 +8121,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>12</v>
       </c>
@@ -8052,7 +8138,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>12</v>
       </c>
@@ -8069,7 +8155,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>12</v>
       </c>
@@ -8086,7 +8172,7 @@
         <v>20190301</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>12</v>
       </c>
@@ -8103,7 +8189,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>12</v>
       </c>
@@ -8120,7 +8206,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>12</v>
       </c>
@@ -8137,7 +8223,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>12</v>
       </c>
@@ -8154,7 +8240,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>12</v>
       </c>
@@ -8171,7 +8257,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>12</v>
       </c>
@@ -8188,7 +8274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>12</v>
       </c>
@@ -8205,7 +8291,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>12</v>
       </c>
@@ -8222,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>12</v>
       </c>
@@ -8239,7 +8325,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>12</v>
       </c>
@@ -8256,7 +8342,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>12</v>
       </c>
@@ -8273,7 +8359,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>12</v>
       </c>
@@ -8290,7 +8376,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>12</v>
       </c>
@@ -8307,7 +8393,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>12</v>
       </c>
@@ -8324,7 +8410,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>12</v>
       </c>
@@ -8341,7 +8427,7 @@
         <v>20190402</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>12</v>
       </c>
@@ -8358,7 +8444,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>12</v>
       </c>
@@ -8375,7 +8461,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>13</v>
       </c>
@@ -8392,7 +8478,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>13</v>
       </c>
@@ -8409,7 +8495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>13</v>
       </c>
@@ -8426,7 +8512,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>13</v>
       </c>
@@ -8460,7 +8546,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>13</v>
       </c>
@@ -8477,7 +8563,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>13</v>
       </c>
@@ -8494,7 +8580,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>13</v>
       </c>
@@ -8511,7 +8597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>13</v>
       </c>
@@ -8528,7 +8614,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>13</v>
       </c>
@@ -8545,7 +8631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>13</v>
       </c>
@@ -8562,7 +8648,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>13</v>
       </c>
@@ -8579,7 +8665,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>13</v>
       </c>
@@ -8596,7 +8682,7 @@
         <v>20190402</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>14</v>
       </c>
@@ -8613,7 +8699,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>14</v>
       </c>
@@ -8647,7 +8733,7 @@
         <v>20190329</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>14</v>
       </c>
@@ -8664,7 +8750,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>14</v>
       </c>
@@ -8681,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>14</v>
       </c>
@@ -8698,7 +8784,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>14</v>
       </c>
@@ -8715,7 +8801,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>14</v>
       </c>
@@ -8732,7 +8818,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>14</v>
       </c>
@@ -8749,7 +8835,7 @@
         <v>20190401</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>14</v>
       </c>
@@ -8766,7 +8852,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>14</v>
       </c>
@@ -8783,7 +8869,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>14</v>
       </c>
@@ -8800,7 +8886,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>14</v>
       </c>
@@ -8817,7 +8903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>14</v>
       </c>
@@ -8834,7 +8920,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>14</v>
       </c>
@@ -8851,7 +8937,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>14</v>
       </c>
@@ -8885,7 +8971,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>14</v>
       </c>
@@ -8902,7 +8988,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>14</v>
       </c>
@@ -8919,7 +9005,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>14</v>
       </c>
@@ -8936,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>14</v>
       </c>
@@ -8953,7 +9039,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>14</v>
       </c>
@@ -8970,7 +9056,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>14</v>
       </c>
@@ -8987,7 +9073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>14</v>
       </c>
@@ -9004,7 +9090,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>14</v>
       </c>
@@ -9021,7 +9107,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>14</v>
       </c>
@@ -9038,7 +9124,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>14</v>
       </c>
@@ -9055,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>15</v>
       </c>
@@ -9072,7 +9158,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>15</v>
       </c>
@@ -9089,7 +9175,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>15</v>
       </c>
@@ -9106,7 +9192,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>15</v>
       </c>
@@ -9123,7 +9209,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>15</v>
       </c>
@@ -9140,7 +9226,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>15</v>
       </c>
@@ -9157,7 +9243,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>15</v>
       </c>
@@ -9174,7 +9260,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>15</v>
       </c>
@@ -9191,7 +9277,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>15</v>
       </c>
@@ -9208,7 +9294,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>15</v>
       </c>
@@ -9225,7 +9311,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>15</v>
       </c>
@@ -9242,7 +9328,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>16</v>
       </c>
@@ -9259,7 +9345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>16</v>
       </c>
@@ -9276,7 +9362,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>16</v>
       </c>
@@ -9293,7 +9379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>16</v>
       </c>
@@ -9310,7 +9396,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>16</v>
       </c>
@@ -9327,7 +9413,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>16</v>
       </c>
@@ -9344,7 +9430,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>16</v>
       </c>
@@ -9361,7 +9447,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>16</v>
       </c>
@@ -9378,7 +9464,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>16</v>
       </c>
@@ -9395,7 +9481,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>16</v>
       </c>
@@ -9412,7 +9498,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>16</v>
       </c>
@@ -9429,7 +9515,7 @@
         <v>20190403</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>16</v>
       </c>
@@ -9446,7 +9532,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>16</v>
       </c>
@@ -9463,7 +9549,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>16</v>
       </c>
@@ -9480,7 +9566,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>16</v>
       </c>
@@ -9497,7 +9583,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>16</v>
       </c>
@@ -9514,7 +9600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>16</v>
       </c>
@@ -9531,7 +9617,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>16</v>
       </c>
@@ -9565,7 +9651,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>16</v>
       </c>
@@ -9582,7 +9668,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>16</v>
       </c>
@@ -9599,7 +9685,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>16</v>
       </c>
@@ -9616,7 +9702,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>16</v>
       </c>
@@ -9633,7 +9719,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>17</v>
       </c>
@@ -9650,7 +9736,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>17</v>
       </c>
@@ -9684,7 +9770,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>17</v>
       </c>
@@ -9701,7 +9787,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>17</v>
       </c>
@@ -9718,7 +9804,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>17</v>
       </c>
@@ -9735,7 +9821,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>17</v>
       </c>
@@ -9752,7 +9838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>17</v>
       </c>
@@ -9769,7 +9855,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>17</v>
       </c>
@@ -9786,7 +9872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>17</v>
       </c>
@@ -9803,7 +9889,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>17</v>
       </c>
@@ -9820,7 +9906,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>17</v>
       </c>
@@ -9837,7 +9923,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>17</v>
       </c>
@@ -9854,7 +9940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>17</v>
       </c>
@@ -9871,7 +9957,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>17</v>
       </c>
@@ -9888,7 +9974,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>17</v>
       </c>
@@ -9905,7 +9991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>17</v>
       </c>
@@ -9922,7 +10008,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>17</v>
       </c>
@@ -9939,7 +10025,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>17</v>
       </c>
@@ -9956,7 +10042,7 @@
         <v>20190401</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>17</v>
       </c>
@@ -9973,7 +10059,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>17</v>
       </c>
@@ -9990,7 +10076,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>17</v>
       </c>
@@ -10007,7 +10093,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>17</v>
       </c>
@@ -10024,7 +10110,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>17</v>
       </c>
@@ -10041,7 +10127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>17</v>
       </c>
@@ -10058,7 +10144,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>17</v>
       </c>
@@ -10075,7 +10161,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>17</v>
       </c>
@@ -10092,7 +10178,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>17</v>
       </c>
@@ -10109,7 +10195,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>17</v>
       </c>
@@ -10126,7 +10212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>17</v>
       </c>
@@ -10143,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>18</v>
       </c>
@@ -10160,7 +10246,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>18</v>
       </c>
@@ -10177,7 +10263,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>18</v>
       </c>
@@ -10194,7 +10280,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>18</v>
       </c>
@@ -10211,7 +10297,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>18</v>
       </c>
@@ -10228,7 +10314,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>18</v>
       </c>
@@ -10245,7 +10331,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>18</v>
       </c>
@@ -10262,7 +10348,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>18</v>
       </c>
@@ -10279,7 +10365,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>18</v>
       </c>
@@ -10296,7 +10382,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>18</v>
       </c>
@@ -10313,7 +10399,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>18</v>
       </c>
@@ -10330,7 +10416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>18</v>
       </c>
@@ -10347,7 +10433,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>18</v>
       </c>
@@ -10364,7 +10450,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>18</v>
       </c>
@@ -10398,7 +10484,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>18</v>
       </c>
@@ -10432,7 +10518,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>18</v>
       </c>
@@ -10449,7 +10535,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>18</v>
       </c>
@@ -10466,7 +10552,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>18</v>
       </c>
@@ -10483,7 +10569,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>18</v>
       </c>
@@ -10500,7 +10586,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>18</v>
       </c>
@@ -10517,7 +10603,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>18</v>
       </c>
@@ -10534,7 +10620,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>18</v>
       </c>
@@ -10551,7 +10637,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>18</v>
       </c>
@@ -10568,7 +10654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>18</v>
       </c>
@@ -10585,7 +10671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>18</v>
       </c>
@@ -10602,7 +10688,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>18</v>
       </c>
@@ -10619,7 +10705,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>19</v>
       </c>
@@ -10636,7 +10722,7 @@
         <v>20190403</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>19</v>
       </c>
@@ -10653,7 +10739,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>19</v>
       </c>
@@ -10670,7 +10756,7 @@
         <v>20190401</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>19</v>
       </c>
@@ -10687,7 +10773,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>19</v>
       </c>
@@ -10704,7 +10790,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>19</v>
       </c>
@@ -10721,7 +10807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>19</v>
       </c>
@@ -10738,7 +10824,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>19</v>
       </c>
@@ -10755,7 +10841,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>19</v>
       </c>
@@ -10772,7 +10858,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>19</v>
       </c>
@@ -10789,7 +10875,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>19</v>
       </c>
@@ -10806,7 +10892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>19</v>
       </c>
@@ -10823,7 +10909,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>19</v>
       </c>
@@ -10840,7 +10926,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>19</v>
       </c>
@@ -10857,7 +10943,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>19</v>
       </c>
@@ -10874,7 +10960,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>19</v>
       </c>
@@ -10891,7 +10977,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>19</v>
       </c>
@@ -10908,7 +10994,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>19</v>
       </c>
@@ -10925,7 +11011,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>19</v>
       </c>
@@ -10942,7 +11028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>19</v>
       </c>
@@ -10959,7 +11045,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>19</v>
       </c>
@@ -10976,7 +11062,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>19</v>
       </c>
@@ -10993,7 +11079,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>19</v>
       </c>
@@ -11010,7 +11096,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>19</v>
       </c>
@@ -11027,7 +11113,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>19</v>
       </c>
@@ -11044,7 +11130,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>19</v>
       </c>
@@ -11061,7 +11147,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>19</v>
       </c>
@@ -11095,7 +11181,7 @@
         <v>20190329</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>19</v>
       </c>
@@ -11112,7 +11198,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>19</v>
       </c>
@@ -11129,7 +11215,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>20</v>
       </c>
@@ -11146,7 +11232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>20</v>
       </c>
@@ -11163,7 +11249,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>20</v>
       </c>
@@ -11180,7 +11266,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>20</v>
       </c>
@@ -11197,7 +11283,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>20</v>
       </c>
@@ -11214,7 +11300,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>20</v>
       </c>
@@ -11231,7 +11317,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>20</v>
       </c>
@@ -11248,7 +11334,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>20</v>
       </c>
@@ -11265,7 +11351,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>20</v>
       </c>
@@ -11299,7 +11385,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>20</v>
       </c>
@@ -11316,7 +11402,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>20</v>
       </c>
@@ -11333,7 +11419,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>20</v>
       </c>
@@ -11350,7 +11436,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>20</v>
       </c>
@@ -11367,7 +11453,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>20</v>
       </c>
@@ -11384,7 +11470,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>20</v>
       </c>
@@ -11401,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>20</v>
       </c>
@@ -11418,7 +11504,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>20</v>
       </c>
@@ -11435,7 +11521,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>20</v>
       </c>
@@ -11452,7 +11538,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>20</v>
       </c>
@@ -11469,7 +11555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>20</v>
       </c>
@@ -11486,7 +11572,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>21</v>
       </c>
@@ -11503,7 +11589,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>21</v>
       </c>
@@ -11520,7 +11606,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>21</v>
       </c>
@@ -11537,7 +11623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>21</v>
       </c>
@@ -11554,7 +11640,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>21</v>
       </c>
@@ -11571,7 +11657,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>21</v>
       </c>
@@ -11588,7 +11674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>21</v>
       </c>
@@ -11622,7 +11708,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>22</v>
       </c>
@@ -11639,7 +11725,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>22</v>
       </c>
@@ -11656,7 +11742,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>22</v>
       </c>
@@ -11673,7 +11759,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>22</v>
       </c>
@@ -11690,7 +11776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>22</v>
       </c>
@@ -11707,7 +11793,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>22</v>
       </c>
@@ -11724,7 +11810,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>22</v>
       </c>
@@ -11741,7 +11827,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>22</v>
       </c>
@@ -11758,7 +11844,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>22</v>
       </c>
@@ -11775,7 +11861,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>22</v>
       </c>
@@ -11792,7 +11878,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>22</v>
       </c>
@@ -11826,7 +11912,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>22</v>
       </c>
@@ -11843,7 +11929,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>22</v>
       </c>
@@ -11860,7 +11946,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>22</v>
       </c>
@@ -11877,7 +11963,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>22</v>
       </c>
@@ -11894,7 +11980,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>22</v>
       </c>
@@ -11911,7 +11997,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>22</v>
       </c>
@@ -11928,7 +12014,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>22</v>
       </c>
@@ -11945,7 +12031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>22</v>
       </c>
@@ -11962,7 +12048,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>22</v>
       </c>
@@ -11979,7 +12065,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>22</v>
       </c>
@@ -11996,7 +12082,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>23</v>
       </c>
@@ -12013,7 +12099,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>23</v>
       </c>
@@ -12030,7 +12116,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>23</v>
       </c>
@@ -12047,7 +12133,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>23</v>
       </c>
@@ -12064,7 +12150,7 @@
         <v>20190412</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>23</v>
       </c>
@@ -12081,7 +12167,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>23</v>
       </c>
@@ -12098,7 +12184,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>23</v>
       </c>
@@ -12115,7 +12201,7 @@
         <v>20190410</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>23</v>
       </c>
@@ -12149,7 +12235,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>23</v>
       </c>
@@ -12183,7 +12269,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>23</v>
       </c>
@@ -12200,7 +12286,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>23</v>
       </c>
@@ -12217,7 +12303,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>23</v>
       </c>
@@ -12234,7 +12320,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>23</v>
       </c>
@@ -12251,7 +12337,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>23</v>
       </c>
@@ -12268,7 +12354,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>23</v>
       </c>
@@ -12285,7 +12371,7 @@
         <v>20190420</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>23</v>
       </c>
@@ -12302,7 +12388,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>23</v>
       </c>
@@ -12319,7 +12405,7 @@
         <v>20190402</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>23</v>
       </c>
@@ -12336,7 +12422,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>23</v>
       </c>
@@ -12353,7 +12439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>23</v>
       </c>
@@ -12370,7 +12456,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>23</v>
       </c>
@@ -12387,7 +12473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>24</v>
       </c>
@@ -12404,7 +12490,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>24</v>
       </c>
@@ -12421,7 +12507,7 @@
         <v>20190421</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>24</v>
       </c>
@@ -12438,7 +12524,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>24</v>
       </c>
@@ -12455,7 +12541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>24</v>
       </c>
@@ -12472,7 +12558,7 @@
         <v>20190404</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>24</v>
       </c>
@@ -12489,7 +12575,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>24</v>
       </c>
@@ -12506,7 +12592,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>24</v>
       </c>
@@ -12523,7 +12609,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>24</v>
       </c>
@@ -12540,7 +12626,7 @@
         <v>20190403</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>24</v>
       </c>
@@ -12557,7 +12643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>24</v>
       </c>
@@ -12574,7 +12660,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>24</v>
       </c>
@@ -12591,7 +12677,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>24</v>
       </c>
@@ -12608,7 +12694,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>24</v>
       </c>
@@ -12625,7 +12711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>24</v>
       </c>
@@ -12642,7 +12728,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>24</v>
       </c>
@@ -12659,7 +12745,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>25</v>
       </c>
@@ -12676,7 +12762,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>25</v>
       </c>
@@ -12693,7 +12779,7 @@
         <v>20190325</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>25</v>
       </c>
@@ -12727,7 +12813,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>25</v>
       </c>
@@ -12744,7 +12830,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>25</v>
       </c>
@@ -12761,7 +12847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>25</v>
       </c>
@@ -12778,7 +12864,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>25</v>
       </c>
@@ -12795,7 +12881,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>25</v>
       </c>
@@ -12812,7 +12898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>25</v>
       </c>
@@ -12829,7 +12915,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>25</v>
       </c>
@@ -12846,7 +12932,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>25</v>
       </c>
@@ -12863,7 +12949,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>25</v>
       </c>
@@ -12880,7 +12966,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>25</v>
       </c>
@@ -12897,7 +12983,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>25</v>
       </c>
@@ -12914,7 +13000,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>25</v>
       </c>
@@ -12931,7 +13017,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>25</v>
       </c>
@@ -12948,7 +13034,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>25</v>
       </c>
@@ -12965,7 +13051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>25</v>
       </c>
@@ -12982,7 +13068,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>25</v>
       </c>
@@ -12999,7 +13085,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>25</v>
       </c>
@@ -13016,7 +13102,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>25</v>
       </c>
@@ -13033,7 +13119,7 @@
         <v>20190414</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>25</v>
       </c>
@@ -13067,7 +13153,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>25</v>
       </c>
@@ -13084,7 +13170,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>25</v>
       </c>
@@ -13101,7 +13187,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>25</v>
       </c>
@@ -13118,7 +13204,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>25</v>
       </c>
@@ -13135,7 +13221,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>26</v>
       </c>
@@ -13152,7 +13238,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>26</v>
       </c>
@@ -13169,7 +13255,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>26</v>
       </c>
@@ -13186,7 +13272,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>26</v>
       </c>
@@ -13203,7 +13289,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>26</v>
       </c>
@@ -13220,7 +13306,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>26</v>
       </c>
@@ -13237,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>26</v>
       </c>
@@ -13254,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>26</v>
       </c>
@@ -13271,7 +13357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>26</v>
       </c>
@@ -13288,7 +13374,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>26</v>
       </c>
@@ -13305,7 +13391,7 @@
         <v>20190405</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>26</v>
       </c>
@@ -13322,7 +13408,7 @@
         <v>20190405</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>26</v>
       </c>
@@ -13339,7 +13425,7 @@
         <v>20190408</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>26</v>
       </c>
@@ -13356,7 +13442,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>26</v>
       </c>
@@ -13373,7 +13459,7 @@
         <v>20190407</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>27</v>
       </c>
@@ -13407,7 +13493,7 @@
         <v>20190326</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>27</v>
       </c>
@@ -13424,7 +13510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>27</v>
       </c>
@@ -13441,7 +13527,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>27</v>
       </c>
@@ -13458,7 +13544,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>27</v>
       </c>
@@ -13475,7 +13561,7 @@
         <v>20190331</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>27</v>
       </c>
@@ -13492,7 +13578,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>27</v>
       </c>
@@ -13509,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>27</v>
       </c>
@@ -13526,7 +13612,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>27</v>
       </c>
@@ -13543,7 +13629,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>27</v>
       </c>
@@ -13560,7 +13646,7 @@
         <v>20190418</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>27</v>
       </c>
@@ -13577,7 +13663,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>27</v>
       </c>
@@ -13594,7 +13680,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>27</v>
       </c>
@@ -13611,7 +13697,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>27</v>
       </c>
@@ -13628,7 +13714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>28</v>
       </c>
@@ -13645,7 +13731,7 @@
         <v>20190417</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>28</v>
       </c>
@@ -13662,7 +13748,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>28</v>
       </c>
@@ -13679,7 +13765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>28</v>
       </c>
@@ -13696,7 +13782,7 @@
         <v>20190411</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>28</v>
       </c>
@@ -13713,7 +13799,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>28</v>
       </c>
@@ -13730,7 +13816,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>28</v>
       </c>
@@ -13747,7 +13833,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>28</v>
       </c>
@@ -13764,7 +13850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>28</v>
       </c>
@@ -13781,7 +13867,7 @@
         <v>20190422</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>28</v>
       </c>
@@ -13798,7 +13884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>28</v>
       </c>
@@ -13815,7 +13901,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>28</v>
       </c>
@@ -13832,7 +13918,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>28</v>
       </c>
@@ -13849,7 +13935,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>28</v>
       </c>
@@ -13866,7 +13952,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>28</v>
       </c>
@@ -13900,7 +13986,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>28</v>
       </c>
@@ -13917,7 +14003,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>28</v>
       </c>
@@ -13934,7 +14020,7 @@
         <v>20190406</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>28</v>
       </c>
@@ -13968,7 +14054,7 @@
         <v>20190329</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>28</v>
       </c>
@@ -13985,7 +14071,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>28</v>
       </c>
@@ -14019,7 +14105,7 @@
         <v>20190328</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>28</v>
       </c>
@@ -14036,7 +14122,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>28</v>
       </c>
@@ -14053,7 +14139,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>28</v>
       </c>
@@ -14070,7 +14156,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>28</v>
       </c>
@@ -14087,7 +14173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>28</v>
       </c>
@@ -14104,7 +14190,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>28</v>
       </c>
@@ -14121,7 +14207,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>28</v>
       </c>
@@ -14155,7 +14241,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>29</v>
       </c>
@@ -14172,7 +14258,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>29</v>
       </c>
@@ -14189,7 +14275,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>29</v>
       </c>
@@ -14206,7 +14292,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>29</v>
       </c>
@@ -14223,7 +14309,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>29</v>
       </c>
@@ -14240,7 +14326,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>29</v>
       </c>
@@ -14257,7 +14343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>29</v>
       </c>
@@ -14291,7 +14377,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>29</v>
       </c>
@@ -14308,7 +14394,7 @@
         <v>20190330</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>29</v>
       </c>
@@ -14325,7 +14411,7 @@
         <v>20190415</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>29</v>
       </c>
@@ -14342,7 +14428,7 @@
         <v>20190423</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>29</v>
       </c>
@@ -14376,7 +14462,7 @@
         <v>20190327</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>29</v>
       </c>
@@ -14393,7 +14479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>29</v>
       </c>
@@ -14410,7 +14496,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>29</v>
       </c>
@@ -14427,7 +14513,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>29</v>
       </c>
@@ -14444,7 +14530,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>29</v>
       </c>
@@ -14461,7 +14547,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>29</v>
       </c>
@@ -14478,7 +14564,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>29</v>
       </c>
@@ -14495,7 +14581,7 @@
         <v>20190413</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>29</v>
       </c>
@@ -14512,7 +14598,7 @@
         <v>20190419</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>29</v>
       </c>
@@ -14529,7 +14615,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>29</v>
       </c>
@@ -14546,7 +14632,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>29</v>
       </c>
@@ -14563,7 +14649,7 @@
         <v>20210101</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>29</v>
       </c>
@@ -14581,6 +14667,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14592,7 +14679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AFE5E9-9F70-4B08-A71A-B1FA90633A1F}">
   <dimension ref="A1:B699"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0"/>
+    <sheetView topLeftCell="A502" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18098,6 +18185,705 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A77221A-7543-4696-95FE-39D54C0B6BCF}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2020534</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2416208</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E2" s="8">
+        <v>20190329</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3199016</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1446402</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4272667</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20190329</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2734415</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2416648</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20190327</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4043370</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E8" s="8">
+        <v>20190326</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4159578</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2896921</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3972945</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20190326</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4764322</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1473856</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20190329</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1618545</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20190326</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4400156</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20190327</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2223555</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E16" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2258830</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20190326</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3023275</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E18" s="8">
+        <v>20190329</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2960983</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20190326</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1581897</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2761792</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3702373</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E22" s="8">
+        <v>20190326</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3173542</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>19</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2496259</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E24" s="8">
+        <v>20190329</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4688169</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E25" s="5">
+        <v>20190326</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1062584</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E26" s="8">
+        <v>20190328</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3600757</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20190327</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>23</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2190408</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E28" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>23</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3680746</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E29" s="5">
+        <v>20190327</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4658969</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4669550</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E31" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>27</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4108241</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E32" s="8">
+        <v>20190326</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4299308</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E33" s="5">
+        <v>20190327</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2373593</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E34" s="8">
+        <v>20190329</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1720477</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E35" s="5">
+        <v>20190328</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>28</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3380452</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E36" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>29</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3677994</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E37" s="5">
+        <v>20190327</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>29</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3552479</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E38" s="8">
+        <v>20190327</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
